--- a/Employee_Dataset.xlsx
+++ b/Employee_Dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gopik\OneDrive\Dokumen\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/462ca5bac877c1d1/Dokumen/New folder/project data analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01A8F0C9-B4BD-4D85-A66E-267B88570C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{01A8F0C9-B4BD-4D85-A66E-267B88570C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C329036-B986-42F5-AB17-415C81E50077}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F17D41FD-BEC4-4D2C-9DAF-32076987284F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{F17D41FD-BEC4-4D2C-9DAF-32076987284F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
@@ -24,9 +24,8 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
@@ -2087,7 +2086,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2124,7 +2123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2142,28 +2141,11 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2181,8 +2163,17 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2213,7 +2204,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Employee_Dataset(AutoRecovered).xlsx]Sheet3!PivotTable1</c:name>
+    <c:name>[Employee_Dataset.xlsx]Sheet3!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -3345,7 +3336,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Employee_Dataset(AutoRecovered).xlsx]Sheet3!PivotTable1</c:name>
+    <c:name>[Employee_Dataset.xlsx]Sheet3!PivotTable1</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -3633,6 +3624,918 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="28"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="29"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="30"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="31"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="32"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="33"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="34"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="35"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="36"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="37"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="38"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="39"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="40"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="41"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="42"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="43"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="44"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="45"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="46"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="47"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="48"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="49"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="50"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="51"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
       <c:rotX val="30"/>
@@ -3710,6 +4613,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3730,6 +4638,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3750,6 +4663,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3770,6 +4688,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -3790,6 +4713,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -3810,6 +4738,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -3832,6 +4765,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -3854,6 +4792,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -3876,6 +4819,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -3898,6 +4846,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -3920,6 +4873,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -3942,6 +4900,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -4062,6 +5025,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4082,6 +5050,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4102,6 +5075,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4122,6 +5100,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -4142,6 +5125,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -4162,6 +5150,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -4184,6 +5177,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -4206,6 +5204,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -4228,6 +5231,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -4250,6 +5258,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -4272,6 +5285,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -4294,6 +5312,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002F-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -4423,6 +5446,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4443,6 +5471,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4463,6 +5496,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000035-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4483,6 +5521,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000037-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -4503,6 +5546,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000039-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -4523,6 +5571,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003B-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -4545,6 +5598,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003D-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -4567,6 +5625,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003F-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -4589,6 +5652,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000041-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -4611,6 +5679,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000043-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -4633,6 +5706,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000045-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -4655,6 +5733,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000047-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -4772,6 +5855,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000049-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4792,6 +5880,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004B-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4812,6 +5905,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004D-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4832,6 +5930,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004F-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -4852,6 +5955,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000051-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -4872,6 +5980,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000053-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -4894,6 +6007,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000055-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -4916,6 +6034,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000057-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -4938,6 +6061,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000059-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -4960,6 +6088,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005B-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -4982,6 +6115,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005D-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -5004,6 +6142,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005F-EA42-4D64-953A-A3C7D3EEDFAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -6308,8 +7451,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Employee type">
@@ -6332,7 +7475,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6386,8 +7529,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Employee rating">
@@ -6410,7 +7553,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6464,8 +7607,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Country">
@@ -6488,7 +7631,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -10198,7 +11341,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD3FD87C-0CE0-435C-B737-219F355F738E}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="60">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD3FD87C-0CE0-435C-B737-219F355F738E}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="60">
   <location ref="A3:F17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0">
@@ -10891,7 +12034,7 @@
   <dataFields count="1">
     <dataField name="Count of First Name" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="16">
+  <chartFormats count="64">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -11077,6 +12220,726 @@
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="30">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="31">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="32">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="33">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="34">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="35">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="36">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="37">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="38">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="39">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="40">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="41">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="42">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="43">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="44">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="45">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="46">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="47">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="48">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="49">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="50">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="51">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="12"/>
           </reference>
           <reference field="12" count="1" selected="0">
             <x v="3"/>
@@ -11460,11 +13323,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DFB6E98-5969-4743-B9BC-56098B42E004}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="28.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
@@ -11475,7 +13338,7 @@
     <col min="7" max="8" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -11483,7 +13346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
         <v>665</v>
       </c>
@@ -11491,7 +13354,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
         <v>658</v>
       </c>
@@ -11511,243 +13374,233 @@
         <v>659</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7">
+      <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9">
         <v>4</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7">
+      <c r="F9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7">
+      <c r="F12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7">
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7">
+      <c r="E13">
         <v>2</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7">
+      <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7">
+      <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15">
         <v>4</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7">
+      <c r="F16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17">
         <v>26</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17">
         <v>16</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17">
         <v>10</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17">
         <v>68</v>
       </c>
     </row>
@@ -11769,11 +13622,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M197"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="39" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="4"/>
     <col min="2" max="3" width="15.54296875" style="4" customWidth="1"/>
@@ -11790,7 +13643,7 @@
     <col min="14" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11831,7 +13684,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" hidden="1">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -11863,7 +13716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="29">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -11906,7 +13759,7 @@
         <v>very high</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" hidden="1">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -11938,7 +13791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -11974,14 +13827,14 @@
       </c>
       <c r="L5" s="4">
         <f t="shared" ref="L5:L7" ca="1" si="0">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M5" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.IFS(L5&gt;4,"very high",L5&gt;3,"high",L5&gt;2,"medium",TRUE,"low")</f>
-        <v>very high</v>
+        <v>medium</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -12017,14 +13870,14 @@
       </c>
       <c r="L6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.IFS(L6&gt;4,"very high",L6&gt;3,"high",L6&gt;2,"medium",TRUE,"low")</f>
-        <v>low</v>
+        <v>high</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -12060,14 +13913,14 @@
       </c>
       <c r="L7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.IFS(L7&gt;4,"very high",L7&gt;3,"high",L7&gt;2,"medium",TRUE,"low")</f>
         <v>low</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" hidden="1">
       <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
@@ -12099,7 +13952,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" hidden="1">
       <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
@@ -12131,7 +13984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="29">
       <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
@@ -12167,14 +14020,14 @@
       </c>
       <c r="L10" s="4">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M10" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.IFS(L10&gt;4,"very high",L10&gt;3,"high",L10&gt;2,"medium",TRUE,"low")</f>
-        <v>low</v>
+        <v>medium</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="29" hidden="1">
       <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
@@ -12206,7 +14059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" hidden="1">
       <c r="A12" s="4" t="s">
         <v>35</v>
       </c>
@@ -12238,7 +14091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13">
       <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
@@ -12274,14 +14127,14 @@
       </c>
       <c r="L13" s="4">
         <f t="shared" ref="L13:L15" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M13" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.IFS(L13&gt;4,"very high",L13&gt;3,"high",L13&gt;2,"medium",TRUE,"low")</f>
-        <v>low</v>
+        <v>high</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="29">
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
@@ -12317,14 +14170,14 @@
       </c>
       <c r="L14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M14" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.IFS(L14&gt;4,"very high",L14&gt;3,"high",L14&gt;2,"medium",TRUE,"low")</f>
-        <v>low</v>
+        <v>high</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13">
       <c r="A15" s="4" t="s">
         <v>41</v>
       </c>
@@ -12360,14 +14213,14 @@
       </c>
       <c r="L15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M15" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.IFS(L15&gt;4,"very high",L15&gt;3,"high",L15&gt;2,"medium",TRUE,"low")</f>
-        <v>high</v>
+        <v>medium</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" hidden="1">
       <c r="A16" s="4" t="s">
         <v>44</v>
       </c>
@@ -12399,7 +14252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13">
       <c r="A17" s="4" t="s">
         <v>46</v>
       </c>
@@ -12435,14 +14288,14 @@
       </c>
       <c r="L17" s="4">
         <f t="shared" ref="L17:L18" ca="1" si="2">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M17" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.IFS(L17&gt;4,"very high",L17&gt;3,"high",L17&gt;2,"medium",TRUE,"low")</f>
-        <v>medium</v>
+        <v>low</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13">
       <c r="A18" s="4" t="s">
         <v>48</v>
       </c>
@@ -12478,14 +14331,14 @@
       </c>
       <c r="L18" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M18" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.IFS(L18&gt;4,"very high",L18&gt;3,"high",L18&gt;2,"medium",TRUE,"low")</f>
-        <v>very high</v>
+        <v>medium</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" hidden="1">
       <c r="A19" s="4" t="s">
         <v>50</v>
       </c>
@@ -12517,7 +14370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="29">
       <c r="A20" s="4" t="s">
         <v>51</v>
       </c>
@@ -12553,14 +14406,14 @@
       </c>
       <c r="L20" s="4">
         <f t="shared" ref="L20:L22" ca="1" si="3">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M20" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.IFS(L20&gt;4,"very high",L20&gt;3,"high",L20&gt;2,"medium",TRUE,"low")</f>
-        <v>medium</v>
+        <v>low</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="29">
       <c r="A21" s="4" t="s">
         <v>52</v>
       </c>
@@ -12596,14 +14449,14 @@
       </c>
       <c r="L21" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M21" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.IFS(L21&gt;4,"very high",L21&gt;3,"high",L21&gt;2,"medium",TRUE,"low")</f>
-        <v>very high</v>
+        <v>low</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13">
       <c r="A22" s="4" t="s">
         <v>54</v>
       </c>
@@ -12639,14 +14492,14 @@
       </c>
       <c r="L22" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.IFS(L22&gt;4,"very high",L22&gt;3,"high",L22&gt;2,"medium",TRUE,"low")</f>
         <v>low</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" hidden="1">
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
@@ -12678,7 +14531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" hidden="1">
       <c r="A24" s="4" t="s">
         <v>59</v>
       </c>
@@ -12710,7 +14563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13">
       <c r="A25" s="4" t="s">
         <v>60</v>
       </c>
@@ -12746,14 +14599,14 @@
       </c>
       <c r="L25" s="4">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M25" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.IFS(L25&gt;4,"very high",L25&gt;3,"high",L25&gt;2,"medium",TRUE,"low")</f>
-        <v>medium</v>
+        <v>very high</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" hidden="1">
       <c r="A26" s="4" t="s">
         <v>62</v>
       </c>
@@ -12782,7 +14635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="29">
       <c r="A27" s="4" t="s">
         <v>63</v>
       </c>
@@ -12818,14 +14671,14 @@
       </c>
       <c r="L27" s="4">
         <f t="shared" ref="L27:L32" ca="1" si="4">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M27" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.IFS(L27&gt;4,"very high",L27&gt;3,"high",L27&gt;2,"medium",TRUE,"low")</f>
-        <v>low</v>
+        <v>high</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13">
       <c r="A28" s="4" t="s">
         <v>64</v>
       </c>
@@ -12861,14 +14714,14 @@
       </c>
       <c r="L28" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M28" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_xlfn.IFS(L28&gt;4,"very high",L28&gt;3,"high",L28&gt;2,"medium",TRUE,"low")</f>
         <v>low</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="29">
       <c r="A29" s="4" t="s">
         <v>65</v>
       </c>
@@ -12904,14 +14757,14 @@
       </c>
       <c r="L29" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M29" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_xlfn.IFS(L29&gt;4,"very high",L29&gt;3,"high",L29&gt;2,"medium",TRUE,"low")</f>
-        <v>low</v>
+        <v>very high</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13">
       <c r="A30" s="4" t="s">
         <v>67</v>
       </c>
@@ -12947,14 +14800,14 @@
       </c>
       <c r="L30" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M30" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">_xlfn.IFS(L30&gt;4,"very high",L30&gt;3,"high",L30&gt;2,"medium",TRUE,"low")</f>
-        <v>very high</v>
+        <v>low</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13">
       <c r="A31" s="4" t="s">
         <v>69</v>
       </c>
@@ -12997,7 +14850,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="29">
       <c r="A32" s="4" t="s">
         <v>71</v>
       </c>
@@ -13033,14 +14886,14 @@
       </c>
       <c r="L32" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M32" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M32" ca="1">_xlfn.IFS(L32&gt;4,"very high",L32&gt;3,"high",L32&gt;2,"medium",TRUE,"low")</f>
-        <v>low</v>
+        <v>very high</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="29" hidden="1">
       <c r="A33" s="4" t="s">
         <v>73</v>
       </c>
@@ -13072,7 +14925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="29" hidden="1">
       <c r="A34" s="4" t="s">
         <v>74</v>
       </c>
@@ -13104,7 +14957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" hidden="1">
       <c r="A35" s="4" t="s">
         <v>75</v>
       </c>
@@ -13140,7 +14993,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="29">
       <c r="A36" s="4" t="s">
         <v>77</v>
       </c>
@@ -13176,14 +15029,14 @@
       </c>
       <c r="L36" s="4">
         <f t="shared" ref="L36:L37" ca="1" si="5">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M36" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M36" ca="1">_xlfn.IFS(L36&gt;4,"very high",L36&gt;3,"high",L36&gt;2,"medium",TRUE,"low")</f>
-        <v>very high</v>
+        <v>high</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13">
       <c r="A37" s="4" t="s">
         <v>79</v>
       </c>
@@ -13219,14 +15072,14 @@
       </c>
       <c r="L37" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M37" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M37" ca="1">_xlfn.IFS(L37&gt;4,"very high",L37&gt;3,"high",L37&gt;2,"medium",TRUE,"low")</f>
-        <v>medium</v>
+        <v>low</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" hidden="1">
       <c r="A38" s="4" t="s">
         <v>80</v>
       </c>
@@ -13258,7 +15111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="29">
       <c r="A39" s="4" t="s">
         <v>81</v>
       </c>
@@ -13294,14 +15147,14 @@
       </c>
       <c r="L39" s="4">
         <f t="shared" ref="L39:L40" ca="1" si="6">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M39" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M39" ca="1">_xlfn.IFS(L39&gt;4,"very high",L39&gt;3,"high",L39&gt;2,"medium",TRUE,"low")</f>
-        <v>very high</v>
+        <v>low</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13">
       <c r="A40" s="4" t="s">
         <v>83</v>
       </c>
@@ -13337,14 +15190,14 @@
       </c>
       <c r="L40" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M40" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M40" ca="1">_xlfn.IFS(L40&gt;4,"very high",L40&gt;3,"high",L40&gt;2,"medium",TRUE,"low")</f>
-        <v>medium</v>
+        <v>high</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" hidden="1">
       <c r="A41" s="4" t="s">
         <v>84</v>
       </c>
@@ -13376,7 +15229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13">
       <c r="A42" s="4" t="s">
         <v>85</v>
       </c>
@@ -13412,14 +15265,14 @@
       </c>
       <c r="L42" s="4">
         <f t="shared" ref="L42:L43" ca="1" si="7">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M42" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M42" ca="1">_xlfn.IFS(L42&gt;4,"very high",L42&gt;3,"high",L42&gt;2,"medium",TRUE,"low")</f>
         <v>low</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="29">
       <c r="A43" s="4" t="s">
         <v>87</v>
       </c>
@@ -13455,14 +15308,14 @@
       </c>
       <c r="L43" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M43" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M43" ca="1">_xlfn.IFS(L43&gt;4,"very high",L43&gt;3,"high",L43&gt;2,"medium",TRUE,"low")</f>
-        <v>very high</v>
+        <v>low</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" hidden="1">
       <c r="A44" s="4" t="s">
         <v>89</v>
       </c>
@@ -13494,7 +15347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" ht="29">
       <c r="A45" s="4" t="s">
         <v>91</v>
       </c>
@@ -13530,14 +15383,14 @@
       </c>
       <c r="L45" s="4">
         <f t="shared" ref="L45:L49" ca="1" si="8">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M45" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M45" ca="1">_xlfn.IFS(L45&gt;4,"very high",L45&gt;3,"high",L45&gt;2,"medium",TRUE,"low")</f>
-        <v>medium</v>
+        <v>low</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13">
       <c r="A46" s="4" t="s">
         <v>79</v>
       </c>
@@ -13573,14 +15426,14 @@
       </c>
       <c r="L46" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M46" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M46" ca="1">_xlfn.IFS(L46&gt;4,"very high",L46&gt;3,"high",L46&gt;2,"medium",TRUE,"low")</f>
         <v>low</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13">
       <c r="A47" s="4" t="s">
         <v>93</v>
       </c>
@@ -13616,14 +15469,14 @@
       </c>
       <c r="L47" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M47" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M47" ca="1">_xlfn.IFS(L47&gt;4,"very high",L47&gt;3,"high",L47&gt;2,"medium",TRUE,"low")</f>
-        <v>very high</v>
+        <v>high</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13">
       <c r="A48" s="4" t="s">
         <v>95</v>
       </c>
@@ -13659,14 +15512,14 @@
       </c>
       <c r="L48" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M48" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M48" ca="1">_xlfn.IFS(L48&gt;4,"very high",L48&gt;3,"high",L48&gt;2,"medium",TRUE,"low")</f>
-        <v>high</v>
+        <v>low</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13">
       <c r="A49" s="4" t="s">
         <v>97</v>
       </c>
@@ -13702,14 +15555,14 @@
       </c>
       <c r="L49" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M49" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M49" ca="1">_xlfn.IFS(L49&gt;4,"very high",L49&gt;3,"high",L49&gt;2,"medium",TRUE,"low")</f>
-        <v>very high</v>
+        <v>medium</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="29" hidden="1">
       <c r="A50" s="4" t="s">
         <v>98</v>
       </c>
@@ -13741,7 +15594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13">
       <c r="A51" s="4" t="s">
         <v>100</v>
       </c>
@@ -13784,7 +15637,7 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13">
       <c r="A52" s="4" t="s">
         <v>101</v>
       </c>
@@ -13820,14 +15673,14 @@
       </c>
       <c r="L52" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M52" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M52" ca="1">_xlfn.IFS(L52&gt;4,"very high",L52&gt;3,"high",L52&gt;2,"medium",TRUE,"low")</f>
-        <v>medium</v>
+        <v>low</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13">
       <c r="A53" s="4" t="s">
         <v>102</v>
       </c>
@@ -13870,7 +15723,7 @@
         <v>high</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13">
       <c r="A54" s="4" t="s">
         <v>104</v>
       </c>
@@ -13906,14 +15759,14 @@
       </c>
       <c r="L54" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M54" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M54" ca="1">_xlfn.IFS(L54&gt;4,"very high",L54&gt;3,"high",L54&gt;2,"medium",TRUE,"low")</f>
-        <v>very high</v>
+        <v>medium</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13">
       <c r="A55" s="4" t="s">
         <v>105</v>
       </c>
@@ -13949,14 +15802,14 @@
       </c>
       <c r="L55" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M55" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M55" ca="1">_xlfn.IFS(L55&gt;4,"very high",L55&gt;3,"high",L55&gt;2,"medium",TRUE,"low")</f>
-        <v>low</v>
+        <v>medium</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" ht="29">
       <c r="A56" s="4" t="s">
         <v>106</v>
       </c>
@@ -13999,7 +15852,7 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13">
       <c r="A57" s="4" t="s">
         <v>107</v>
       </c>
@@ -14035,14 +15888,14 @@
       </c>
       <c r="L57" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M57" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M57" ca="1">_xlfn.IFS(L57&gt;4,"very high",L57&gt;3,"high",L57&gt;2,"medium",TRUE,"low")</f>
-        <v>low</v>
+        <v>high</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" ht="29">
       <c r="A58" s="4" t="s">
         <v>108</v>
       </c>
@@ -14078,14 +15931,14 @@
       </c>
       <c r="L58" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M58" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M58" ca="1">_xlfn.IFS(L58&gt;4,"very high",L58&gt;3,"high",L58&gt;2,"medium",TRUE,"low")</f>
         <v>low</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" ht="29">
       <c r="A59" s="4" t="s">
         <v>109</v>
       </c>
@@ -14121,14 +15974,14 @@
       </c>
       <c r="L59" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M59" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M59" ca="1">_xlfn.IFS(L59&gt;4,"very high",L59&gt;3,"high",L59&gt;2,"medium",TRUE,"low")</f>
-        <v>high</v>
+        <v>very high</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" ht="29">
       <c r="A60" s="4" t="s">
         <v>110</v>
       </c>
@@ -14171,7 +16024,7 @@
         <v>very high</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13">
       <c r="A61" s="4" t="s">
         <v>112</v>
       </c>
@@ -14207,14 +16060,14 @@
       </c>
       <c r="L61" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M61" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M61" ca="1">_xlfn.IFS(L61&gt;4,"very high",L61&gt;3,"high",L61&gt;2,"medium",TRUE,"low")</f>
-        <v>low</v>
+        <v>high</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13">
       <c r="A62" s="4" t="s">
         <v>114</v>
       </c>
@@ -14257,7 +16110,7 @@
         <v>very high</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13">
       <c r="A63" s="4" t="s">
         <v>116</v>
       </c>
@@ -14300,7 +16153,7 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" ht="29">
       <c r="A64" s="4" t="s">
         <v>118</v>
       </c>
@@ -14336,14 +16189,14 @@
       </c>
       <c r="L64" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M64" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M64" ca="1">_xlfn.IFS(L64&gt;4,"very high",L64&gt;3,"high",L64&gt;2,"medium",TRUE,"low")</f>
-        <v>medium</v>
+        <v>very high</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" hidden="1">
       <c r="A65" s="4" t="s">
         <v>120</v>
       </c>
@@ -14375,7 +16228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13">
       <c r="A66" s="4" t="s">
         <v>121</v>
       </c>
@@ -14411,14 +16264,14 @@
       </c>
       <c r="L66" s="4">
         <f t="shared" ref="L66:L69" ca="1" si="10">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M66" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M66" ca="1">_xlfn.IFS(L66&gt;4,"very high",L66&gt;3,"high",L66&gt;2,"medium",TRUE,"low")</f>
-        <v>very high</v>
+        <v>low</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" ht="29">
       <c r="A67" s="4" t="s">
         <v>122</v>
       </c>
@@ -14454,14 +16307,14 @@
       </c>
       <c r="L67" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M67" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M67" ca="1">_xlfn.IFS(L67&gt;4,"very high",L67&gt;3,"high",L67&gt;2,"medium",TRUE,"low")</f>
         <v>low</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13">
       <c r="A68" s="4" t="s">
         <v>124</v>
       </c>
@@ -14497,14 +16350,14 @@
       </c>
       <c r="L68" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M68" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M68" ca="1">_xlfn.IFS(L68&gt;4,"very high",L68&gt;3,"high",L68&gt;2,"medium",TRUE,"low")</f>
-        <v>low</v>
+        <v>high</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13">
       <c r="A69" s="4" t="s">
         <v>125</v>
       </c>
@@ -14547,7 +16400,7 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" ht="29" hidden="1">
       <c r="A70" s="4" t="s">
         <v>126</v>
       </c>
@@ -14579,7 +16432,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" ht="29">
       <c r="A71" s="4" t="s">
         <v>128</v>
       </c>
@@ -14615,14 +16468,14 @@
       </c>
       <c r="L71" s="4">
         <f t="shared" ref="L71:L74" ca="1" si="11">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M71" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M71" ca="1">_xlfn.IFS(L71&gt;4,"very high",L71&gt;3,"high",L71&gt;2,"medium",TRUE,"low")</f>
-        <v>medium</v>
+        <v>very high</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13">
       <c r="A72" s="4" t="s">
         <v>130</v>
       </c>
@@ -14658,14 +16511,14 @@
       </c>
       <c r="L72" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M72" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M72" ca="1">_xlfn.IFS(L72&gt;4,"very high",L72&gt;3,"high",L72&gt;2,"medium",TRUE,"low")</f>
-        <v>low</v>
+        <v>medium</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" ht="29">
       <c r="A73" s="4" t="s">
         <v>132</v>
       </c>
@@ -14701,14 +16554,14 @@
       </c>
       <c r="L73" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M73" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M73" ca="1">_xlfn.IFS(L73&gt;4,"very high",L73&gt;3,"high",L73&gt;2,"medium",TRUE,"low")</f>
-        <v>very high</v>
+        <v>medium</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13">
       <c r="A74" s="4" t="s">
         <v>134</v>
       </c>
@@ -14744,14 +16597,14 @@
       </c>
       <c r="L74" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M74" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M74" ca="1">_xlfn.IFS(L74&gt;4,"very high",L74&gt;3,"high",L74&gt;2,"medium",TRUE,"low")</f>
-        <v>high</v>
+        <v>low</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" hidden="1">
       <c r="A75" s="4" t="s">
         <v>136</v>
       </c>
@@ -14787,7 +16640,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" ht="29" hidden="1">
       <c r="A76" s="4" t="s">
         <v>137</v>
       </c>
@@ -14819,7 +16672,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13">
       <c r="A77" s="4" t="s">
         <v>138</v>
       </c>
@@ -14855,14 +16708,14 @@
       </c>
       <c r="L77" s="4">
         <f t="shared" ref="L77:L78" ca="1" si="12">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M77" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M77" ca="1">_xlfn.IFS(L77&gt;4,"very high",L77&gt;3,"high",L77&gt;2,"medium",TRUE,"low")</f>
-        <v>medium</v>
+        <v>high</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13">
       <c r="A78" s="4" t="s">
         <v>139</v>
       </c>
@@ -14898,14 +16751,14 @@
       </c>
       <c r="L78" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M78" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M78" ca="1">_xlfn.IFS(L78&gt;4,"very high",L78&gt;3,"high",L78&gt;2,"medium",TRUE,"low")</f>
-        <v>very high</v>
+        <v>high</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" hidden="1">
       <c r="A79" s="4" t="s">
         <v>141</v>
       </c>
@@ -14937,7 +16790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" ht="29">
       <c r="A80" s="4" t="s">
         <v>142</v>
       </c>
@@ -14980,7 +16833,7 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" ht="29">
       <c r="A81" s="4" t="s">
         <v>143</v>
       </c>
@@ -15016,14 +16869,14 @@
       </c>
       <c r="L81" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M81" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M81" ca="1">_xlfn.IFS(L81&gt;4,"very high",L81&gt;3,"high",L81&gt;2,"medium",TRUE,"low")</f>
-        <v>medium</v>
+        <v>very high</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13">
       <c r="A82" s="4" t="s">
         <v>145</v>
       </c>
@@ -15066,7 +16919,7 @@
         <v>very high</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13">
       <c r="A83" s="4" t="s">
         <v>147</v>
       </c>
@@ -15102,14 +16955,14 @@
       </c>
       <c r="L83" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M83" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M83" ca="1">_xlfn.IFS(L83&gt;4,"very high",L83&gt;3,"high",L83&gt;2,"medium",TRUE,"low")</f>
-        <v>low</v>
+        <v>very high</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13">
       <c r="A84" s="4" t="s">
         <v>149</v>
       </c>
@@ -15145,14 +16998,14 @@
       </c>
       <c r="L84" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M84" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M84" ca="1">_xlfn.IFS(L84&gt;4,"very high",L84&gt;3,"high",L84&gt;2,"medium",TRUE,"low")</f>
-        <v>low</v>
+        <v>high</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" hidden="1">
       <c r="A85" s="4" t="s">
         <v>151</v>
       </c>
@@ -15184,7 +17037,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" ht="29">
       <c r="A86" s="4" t="s">
         <v>153</v>
       </c>
@@ -15227,7 +17080,7 @@
         <v>very high</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" ht="29" hidden="1">
       <c r="A87" s="4" t="s">
         <v>155</v>
       </c>
@@ -15259,7 +17112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" ht="29" hidden="1">
       <c r="A88" s="4" t="s">
         <v>157</v>
       </c>
@@ -15291,7 +17144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" ht="29" hidden="1">
       <c r="A89" s="4" t="s">
         <v>159</v>
       </c>
@@ -15323,7 +17176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13">
       <c r="A90" s="4" t="s">
         <v>160</v>
       </c>
@@ -15359,14 +17212,14 @@
       </c>
       <c r="L90" s="4">
         <f t="shared" ref="L90:L92" ca="1" si="14">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M90" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M90" ca="1">_xlfn.IFS(L90&gt;4,"very high",L90&gt;3,"high",L90&gt;2,"medium",TRUE,"low")</f>
-        <v>very high</v>
+        <v>medium</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13">
       <c r="A91" s="4" t="s">
         <v>161</v>
       </c>
@@ -15409,7 +17262,7 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" ht="29">
       <c r="A92" s="4" t="s">
         <v>91</v>
       </c>
@@ -15445,14 +17298,14 @@
       </c>
       <c r="L92" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M92" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M92" ca="1">_xlfn.IFS(L92&gt;4,"very high",L92&gt;3,"high",L92&gt;2,"medium",TRUE,"low")</f>
-        <v>high</v>
+        <v>medium</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" hidden="1">
       <c r="A93" s="4" t="s">
         <v>162</v>
       </c>
@@ -15484,7 +17337,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" ht="29">
       <c r="A94" s="4" t="s">
         <v>163</v>
       </c>
@@ -15527,7 +17380,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" hidden="1">
       <c r="A95" s="4" t="s">
         <v>165</v>
       </c>
@@ -15559,7 +17412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" ht="29">
       <c r="A96" s="4" t="s">
         <v>167</v>
       </c>
@@ -15595,14 +17448,14 @@
       </c>
       <c r="L96" s="4">
         <f t="shared" ref="L96:L97" ca="1" si="15">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M96" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M96" ca="1">_xlfn.IFS(L96&gt;4,"very high",L96&gt;3,"high",L96&gt;2,"medium",TRUE,"low")</f>
-        <v>medium</v>
+        <v>high</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13">
       <c r="A97" s="4" t="s">
         <v>169</v>
       </c>
@@ -15638,14 +17491,14 @@
       </c>
       <c r="L97" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M97" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M97" ca="1">_xlfn.IFS(L97&gt;4,"very high",L97&gt;3,"high",L97&gt;2,"medium",TRUE,"low")</f>
-        <v>medium</v>
+        <v>low</v>
       </c>
     </row>
-    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" hidden="1">
       <c r="A98" s="4" t="s">
         <v>171</v>
       </c>
@@ -15677,7 +17530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" hidden="1">
       <c r="A99" s="4" t="s">
         <v>173</v>
       </c>
@@ -15709,7 +17562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13">
       <c r="A100" s="4" t="s">
         <v>174</v>
       </c>
@@ -15745,14 +17598,14 @@
       </c>
       <c r="L100" s="4">
         <f t="shared" ref="L100:L102" ca="1" si="16">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M100" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M100" ca="1">_xlfn.IFS(L100&gt;4,"very high",L100&gt;3,"high",L100&gt;2,"medium",TRUE,"low")</f>
-        <v>high</v>
+        <v>low</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13">
       <c r="A101" s="4" t="s">
         <v>176</v>
       </c>
@@ -15788,14 +17641,14 @@
       </c>
       <c r="L101" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M101" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M101" ca="1">_xlfn.IFS(L101&gt;4,"very high",L101&gt;3,"high",L101&gt;2,"medium",TRUE,"low")</f>
-        <v>low</v>
+        <v>high</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13">
       <c r="A102" s="4" t="s">
         <v>178</v>
       </c>
@@ -15838,7 +17691,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" hidden="1">
       <c r="A103" s="4" t="s">
         <v>179</v>
       </c>
@@ -15870,7 +17723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13">
       <c r="A104" s="4" t="s">
         <v>180</v>
       </c>
@@ -15906,14 +17759,14 @@
       </c>
       <c r="L104" s="4">
         <f t="shared" ref="L104:L106" ca="1" si="17">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M104" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M104" ca="1">_xlfn.IFS(L104&gt;4,"very high",L104&gt;3,"high",L104&gt;2,"medium",TRUE,"low")</f>
-        <v>very high</v>
+        <v>high</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" ht="29">
       <c r="A105" s="4" t="s">
         <v>182</v>
       </c>
@@ -15956,7 +17809,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13">
       <c r="A106" s="4" t="s">
         <v>183</v>
       </c>
@@ -15992,14 +17845,14 @@
       </c>
       <c r="L106" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M106" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M106" ca="1">_xlfn.IFS(L106&gt;4,"very high",L106&gt;3,"high",L106&gt;2,"medium",TRUE,"low")</f>
-        <v>very high</v>
+        <v>medium</v>
       </c>
     </row>
-    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" hidden="1">
       <c r="A107" s="4" t="s">
         <v>184</v>
       </c>
@@ -16031,7 +17884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13">
       <c r="A108" s="4" t="s">
         <v>186</v>
       </c>
@@ -16074,7 +17927,7 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" ht="29">
       <c r="A109" s="4" t="s">
         <v>188</v>
       </c>
@@ -16117,7 +17970,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" hidden="1">
       <c r="A110" s="4" t="s">
         <v>189</v>
       </c>
@@ -16149,7 +18002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13">
       <c r="A111" s="4" t="s">
         <v>136</v>
       </c>
@@ -16185,14 +18038,14 @@
       </c>
       <c r="L111" s="4">
         <f t="shared" ref="L111:L112" ca="1" si="19">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M111" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M111" ca="1">_xlfn.IFS(L111&gt;4,"very high",L111&gt;3,"high",L111&gt;2,"medium",TRUE,"low")</f>
-        <v>very high</v>
+        <v>low</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13">
       <c r="A112" s="4" t="s">
         <v>191</v>
       </c>
@@ -16228,14 +18081,14 @@
       </c>
       <c r="L112" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M112" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M112" ca="1">_xlfn.IFS(L112&gt;4,"very high",L112&gt;3,"high",L112&gt;2,"medium",TRUE,"low")</f>
-        <v>very high</v>
+        <v>medium</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" ht="29" hidden="1">
       <c r="A113" s="4" t="s">
         <v>192</v>
       </c>
@@ -16267,7 +18120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" hidden="1">
       <c r="A114" s="4" t="s">
         <v>193</v>
       </c>
@@ -16303,7 +18156,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" ht="29">
       <c r="A115" s="4" t="s">
         <v>71</v>
       </c>
@@ -16339,14 +18192,14 @@
       </c>
       <c r="L115" s="4">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M115" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M115" ca="1">_xlfn.IFS(L115&gt;4,"very high",L115&gt;3,"high",L115&gt;2,"medium",TRUE,"low")</f>
-        <v>low</v>
+        <v>very high</v>
       </c>
     </row>
-    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" hidden="1">
       <c r="A116" s="4" t="s">
         <v>194</v>
       </c>
@@ -16378,7 +18231,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13">
       <c r="A117" s="4" t="s">
         <v>195</v>
       </c>
@@ -16421,7 +18274,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" hidden="1">
       <c r="A118" s="4" t="s">
         <v>197</v>
       </c>
@@ -16453,7 +18306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" ht="29">
       <c r="A119" s="4" t="s">
         <v>142</v>
       </c>
@@ -16489,14 +18342,14 @@
       </c>
       <c r="L119" s="4">
         <f t="shared" ref="L119:L120" ca="1" si="20">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M119" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M119" ca="1">_xlfn.IFS(L119&gt;4,"very high",L119&gt;3,"high",L119&gt;2,"medium",TRUE,"low")</f>
-        <v>very high</v>
+        <v>low</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13">
       <c r="A120" s="4" t="s">
         <v>198</v>
       </c>
@@ -16532,14 +18385,14 @@
       </c>
       <c r="L120" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M120" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M120" ca="1">_xlfn.IFS(L120&gt;4,"very high",L120&gt;3,"high",L120&gt;2,"medium",TRUE,"low")</f>
-        <v>medium</v>
+        <v>high</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" ht="29" hidden="1">
       <c r="A121" s="4" t="s">
         <v>200</v>
       </c>
@@ -16571,7 +18424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13">
       <c r="A122" s="4" t="s">
         <v>202</v>
       </c>
@@ -16607,14 +18460,14 @@
       </c>
       <c r="L122" s="4">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M122" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M122" ca="1">_xlfn.IFS(L122&gt;4,"very high",L122&gt;3,"high",L122&gt;2,"medium",TRUE,"low")</f>
-        <v>very high</v>
+        <v>medium</v>
       </c>
     </row>
-    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" hidden="1">
       <c r="A123" s="4" t="s">
         <v>203</v>
       </c>
@@ -16646,7 +18499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" ht="29">
       <c r="A124" s="4" t="s">
         <v>204</v>
       </c>
@@ -16682,14 +18535,14 @@
       </c>
       <c r="L124" s="4">
         <f t="shared" ref="L124:L125" ca="1" si="21">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M124" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M124" ca="1">_xlfn.IFS(L124&gt;4,"very high",L124&gt;3,"high",L124&gt;2,"medium",TRUE,"low")</f>
-        <v>very high</v>
+        <v>high</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" ht="29">
       <c r="A125" s="4" t="s">
         <v>206</v>
       </c>
@@ -16725,14 +18578,14 @@
       </c>
       <c r="L125" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M125" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M125" ca="1">_xlfn.IFS(L125&gt;4,"very high",L125&gt;3,"high",L125&gt;2,"medium",TRUE,"low")</f>
-        <v>high</v>
+        <v>medium</v>
       </c>
     </row>
-    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" hidden="1">
       <c r="A126" s="4" t="s">
         <v>203</v>
       </c>
@@ -16764,7 +18617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13">
       <c r="A127" s="4" t="s">
         <v>207</v>
       </c>
@@ -16800,14 +18653,14 @@
       </c>
       <c r="L127" s="4">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M127" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M127" ca="1">_xlfn.IFS(L127&gt;4,"very high",L127&gt;3,"high",L127&gt;2,"medium",TRUE,"low")</f>
-        <v>low</v>
+        <v>very high</v>
       </c>
     </row>
-    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" hidden="1">
       <c r="A128" s="4" t="s">
         <v>171</v>
       </c>
@@ -16839,7 +18692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" ht="29">
       <c r="A129" s="4" t="s">
         <v>208</v>
       </c>
@@ -16875,14 +18728,14 @@
       </c>
       <c r="L129" s="4">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M129" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M129" ca="1">_xlfn.IFS(L129&gt;4,"very high",L129&gt;3,"high",L129&gt;2,"medium",TRUE,"low")</f>
-        <v>very high</v>
+        <v>medium</v>
       </c>
     </row>
-    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" hidden="1">
       <c r="A130" s="4" t="s">
         <v>210</v>
       </c>
@@ -16914,7 +18767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13">
       <c r="A131" s="4" t="s">
         <v>211</v>
       </c>
@@ -16957,7 +18810,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13">
       <c r="A132" s="4" t="s">
         <v>212</v>
       </c>
@@ -16993,14 +18846,14 @@
       </c>
       <c r="L132" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M132" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M132" ca="1">_xlfn.IFS(L132&gt;4,"very high",L132&gt;3,"high",L132&gt;2,"medium",TRUE,"low")</f>
-        <v>low</v>
+        <v>high</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13">
       <c r="A133" s="4" t="s">
         <v>214</v>
       </c>
@@ -17043,7 +18896,7 @@
         <v>very high</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" ht="29" hidden="1">
       <c r="A134" s="4" t="s">
         <v>215</v>
       </c>
@@ -17079,7 +18932,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" hidden="1">
       <c r="A135" s="4" t="s">
         <v>216</v>
       </c>
@@ -17111,7 +18964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" hidden="1">
       <c r="A136" s="4" t="s">
         <v>218</v>
       </c>
@@ -17143,7 +18996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" ht="29">
       <c r="A137" s="4" t="s">
         <v>219</v>
       </c>
@@ -17179,14 +19032,14 @@
       </c>
       <c r="L137" s="4">
         <f t="shared" ref="L137:L141" ca="1" si="23">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M137" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M137" ca="1">_xlfn.IFS(L137&gt;4,"very high",L137&gt;3,"high",L137&gt;2,"medium",TRUE,"low")</f>
-        <v>low</v>
+        <v>high</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" ht="29">
       <c r="A138" s="4" t="s">
         <v>220</v>
       </c>
@@ -17222,14 +19075,14 @@
       </c>
       <c r="L138" s="4">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M138" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M138" ca="1">_xlfn.IFS(L138&gt;4,"very high",L138&gt;3,"high",L138&gt;2,"medium",TRUE,"low")</f>
-        <v>low</v>
+        <v>high</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" ht="29">
       <c r="A139" s="4" t="s">
         <v>221</v>
       </c>
@@ -17265,14 +19118,14 @@
       </c>
       <c r="L139" s="4">
         <f t="shared" ca="1" si="23"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M139" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M139" ca="1">_xlfn.IFS(L139&gt;4,"very high",L139&gt;3,"high",L139&gt;2,"medium",TRUE,"low")</f>
-        <v>medium</v>
+        <v>high</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13">
       <c r="A140" s="4" t="s">
         <v>222</v>
       </c>
@@ -17308,14 +19161,14 @@
       </c>
       <c r="L140" s="4">
         <f t="shared" ca="1" si="23"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M140" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M140" ca="1">_xlfn.IFS(L140&gt;4,"very high",L140&gt;3,"high",L140&gt;2,"medium",TRUE,"low")</f>
-        <v>high</v>
+        <v>very high</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" ht="29">
       <c r="A141" s="4" t="s">
         <v>223</v>
       </c>
@@ -17351,14 +19204,14 @@
       </c>
       <c r="L141" s="4">
         <f t="shared" ca="1" si="23"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M141" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M141" ca="1">_xlfn.IFS(L141&gt;4,"very high",L141&gt;3,"high",L141&gt;2,"medium",TRUE,"low")</f>
-        <v>high</v>
+        <v>medium</v>
       </c>
     </row>
-    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" hidden="1">
       <c r="A142" s="4" t="s">
         <v>114</v>
       </c>
@@ -17394,7 +19247,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13">
       <c r="A143" s="4" t="s">
         <v>225</v>
       </c>
@@ -17430,14 +19283,14 @@
       </c>
       <c r="L143" s="4">
         <f t="shared" ref="L143:L145" ca="1" si="24">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M143" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M143" ca="1">_xlfn.IFS(L143&gt;4,"very high",L143&gt;3,"high",L143&gt;2,"medium",TRUE,"low")</f>
-        <v>high</v>
+        <v>low</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" ht="29">
       <c r="A144" s="4" t="s">
         <v>227</v>
       </c>
@@ -17473,14 +19326,14 @@
       </c>
       <c r="L144" s="4">
         <f t="shared" ca="1" si="24"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M144" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M144" ca="1">_xlfn.IFS(L144&gt;4,"very high",L144&gt;3,"high",L144&gt;2,"medium",TRUE,"low")</f>
-        <v>low</v>
+        <v>very high</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13">
       <c r="A145" s="4" t="s">
         <v>228</v>
       </c>
@@ -17516,14 +19369,14 @@
       </c>
       <c r="L145" s="4">
         <f t="shared" ca="1" si="24"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M145" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M145" ca="1">_xlfn.IFS(L145&gt;4,"very high",L145&gt;3,"high",L145&gt;2,"medium",TRUE,"low")</f>
-        <v>very high</v>
+        <v>low</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13" ht="29" hidden="1">
       <c r="A146" s="4" t="s">
         <v>229</v>
       </c>
@@ -17555,7 +19408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" ht="29">
       <c r="A147" s="4" t="s">
         <v>230</v>
       </c>
@@ -17591,14 +19444,14 @@
       </c>
       <c r="L147" s="4">
         <f t="shared" ref="L147:L149" ca="1" si="25">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M147" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M147" ca="1">_xlfn.IFS(L147&gt;4,"very high",L147&gt;3,"high",L147&gt;2,"medium",TRUE,"low")</f>
-        <v>very high</v>
+        <v>medium</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13">
       <c r="A148" s="4" t="s">
         <v>46</v>
       </c>
@@ -17634,14 +19487,14 @@
       </c>
       <c r="L148" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M148" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M148" ca="1">_xlfn.IFS(L148&gt;4,"very high",L148&gt;3,"high",L148&gt;2,"medium",TRUE,"low")</f>
-        <v>high</v>
+        <v>low</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" ht="29">
       <c r="A149" s="4" t="s">
         <v>231</v>
       </c>
@@ -17677,14 +19530,14 @@
       </c>
       <c r="L149" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M149" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M149" ca="1">_xlfn.IFS(L149&gt;4,"very high",L149&gt;3,"high",L149&gt;2,"medium",TRUE,"low")</f>
         <v>low</v>
       </c>
     </row>
-    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13" hidden="1">
       <c r="A150" s="4" t="s">
         <v>233</v>
       </c>
@@ -17716,7 +19569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13">
       <c r="A151" s="4" t="s">
         <v>234</v>
       </c>
@@ -17752,14 +19605,14 @@
       </c>
       <c r="L151" s="4">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M151" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M151" ca="1">_xlfn.IFS(L151&gt;4,"very high",L151&gt;3,"high",L151&gt;2,"medium",TRUE,"low")</f>
-        <v>medium</v>
+        <v>high</v>
       </c>
     </row>
-    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13" hidden="1">
       <c r="A152" s="4" t="s">
         <v>235</v>
       </c>
@@ -17791,7 +19644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:13">
       <c r="A153" s="4" t="s">
         <v>236</v>
       </c>
@@ -17827,14 +19680,14 @@
       </c>
       <c r="L153" s="4">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M153" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M153" ca="1">_xlfn.IFS(L153&gt;4,"very high",L153&gt;3,"high",L153&gt;2,"medium",TRUE,"low")</f>
-        <v>very high</v>
+        <v>high</v>
       </c>
     </row>
-    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:13" hidden="1">
       <c r="A154" s="4" t="s">
         <v>238</v>
       </c>
@@ -17866,7 +19719,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:13" ht="29">
       <c r="A155" s="4" t="s">
         <v>240</v>
       </c>
@@ -17902,14 +19755,14 @@
       </c>
       <c r="L155" s="4">
         <f t="shared" ref="L155:L158" ca="1" si="26">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M155" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M155" ca="1">_xlfn.IFS(L155&gt;4,"very high",L155&gt;3,"high",L155&gt;2,"medium",TRUE,"low")</f>
-        <v>high</v>
+        <v>medium</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:13">
       <c r="A156" s="4" t="s">
         <v>241</v>
       </c>
@@ -17945,14 +19798,14 @@
       </c>
       <c r="L156" s="4">
         <f t="shared" ca="1" si="26"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M156" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M156" ca="1">_xlfn.IFS(L156&gt;4,"very high",L156&gt;3,"high",L156&gt;2,"medium",TRUE,"low")</f>
-        <v>high</v>
+        <v>low</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13">
       <c r="A157" s="4" t="s">
         <v>242</v>
       </c>
@@ -17988,14 +19841,14 @@
       </c>
       <c r="L157" s="4">
         <f t="shared" ca="1" si="26"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M157" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M157" ca="1">_xlfn.IFS(L157&gt;4,"very high",L157&gt;3,"high",L157&gt;2,"medium",TRUE,"low")</f>
-        <v>medium</v>
+        <v>high</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:13">
       <c r="A158" s="4" t="s">
         <v>243</v>
       </c>
@@ -18031,14 +19884,14 @@
       </c>
       <c r="L158" s="4">
         <f t="shared" ca="1" si="26"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M158" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M158" ca="1">_xlfn.IFS(L158&gt;4,"very high",L158&gt;3,"high",L158&gt;2,"medium",TRUE,"low")</f>
-        <v>low</v>
+        <v>high</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:13" ht="29" hidden="1">
       <c r="A159" s="4" t="s">
         <v>192</v>
       </c>
@@ -18067,7 +19920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13" hidden="1">
       <c r="A160" s="4" t="s">
         <v>244</v>
       </c>
@@ -18099,7 +19952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:13">
       <c r="A161" s="4" t="s">
         <v>245</v>
       </c>
@@ -18135,14 +19988,14 @@
       </c>
       <c r="L161" s="4">
         <f t="shared" ref="L161:L165" ca="1" si="27">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M161" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M161" ca="1">_xlfn.IFS(L161&gt;4,"very high",L161&gt;3,"high",L161&gt;2,"medium",TRUE,"low")</f>
-        <v>medium</v>
+        <v>high</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:13" ht="29">
       <c r="A162" s="4" t="s">
         <v>246</v>
       </c>
@@ -18178,14 +20031,14 @@
       </c>
       <c r="L162" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M162" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M162" ca="1">_xlfn.IFS(L162&gt;4,"very high",L162&gt;3,"high",L162&gt;2,"medium",TRUE,"low")</f>
-        <v>medium</v>
+        <v>low</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:13">
       <c r="A163" s="4" t="s">
         <v>247</v>
       </c>
@@ -18221,14 +20074,14 @@
       </c>
       <c r="L163" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M163" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M163" ca="1">_xlfn.IFS(L163&gt;4,"very high",L163&gt;3,"high",L163&gt;2,"medium",TRUE,"low")</f>
-        <v>very high</v>
+        <v>medium</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:13">
       <c r="A164" s="4" t="s">
         <v>249</v>
       </c>
@@ -18264,14 +20117,14 @@
       </c>
       <c r="L164" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M164" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M164" ca="1">_xlfn.IFS(L164&gt;4,"very high",L164&gt;3,"high",L164&gt;2,"medium",TRUE,"low")</f>
-        <v>medium</v>
+        <v>high</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:13" ht="29">
       <c r="A165" s="4" t="s">
         <v>251</v>
       </c>
@@ -18307,14 +20160,14 @@
       </c>
       <c r="L165" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M165" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M165" ca="1">_xlfn.IFS(L165&gt;4,"very high",L165&gt;3,"high",L165&gt;2,"medium",TRUE,"low")</f>
-        <v>very high</v>
+        <v>medium</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:13" ht="29" hidden="1">
       <c r="A166" s="4" t="s">
         <v>253</v>
       </c>
@@ -18350,7 +20203,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:13">
       <c r="A167" s="4" t="s">
         <v>255</v>
       </c>
@@ -18386,14 +20239,14 @@
       </c>
       <c r="L167" s="4">
         <f t="shared" ref="L167:L169" ca="1" si="28">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M167" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M167" ca="1">_xlfn.IFS(L167&gt;4,"very high",L167&gt;3,"high",L167&gt;2,"medium",TRUE,"low")</f>
-        <v>very high</v>
+        <v>low</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:13" ht="29">
       <c r="A168" s="4" t="s">
         <v>110</v>
       </c>
@@ -18429,14 +20282,14 @@
       </c>
       <c r="L168" s="4">
         <f t="shared" ca="1" si="28"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M168" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M168" ca="1">_xlfn.IFS(L168&gt;4,"very high",L168&gt;3,"high",L168&gt;2,"medium",TRUE,"low")</f>
-        <v>very high</v>
+        <v>low</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:13">
       <c r="A169" s="4" t="s">
         <v>257</v>
       </c>
@@ -18472,14 +20325,14 @@
       </c>
       <c r="L169" s="4">
         <f t="shared" ca="1" si="28"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M169" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M169" ca="1">_xlfn.IFS(L169&gt;4,"very high",L169&gt;3,"high",L169&gt;2,"medium",TRUE,"low")</f>
-        <v>low</v>
+        <v>medium</v>
       </c>
     </row>
-    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:13" hidden="1">
       <c r="A170" s="4" t="s">
         <v>179</v>
       </c>
@@ -18511,7 +20364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:13">
       <c r="A171" s="4" t="s">
         <v>258</v>
       </c>
@@ -18547,14 +20400,14 @@
       </c>
       <c r="L171" s="4">
         <f t="shared" ref="L171:L182" ca="1" si="29">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M171" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M171" ca="1">_xlfn.IFS(L171&gt;4,"very high",L171&gt;3,"high",L171&gt;2,"medium",TRUE,"low")</f>
-        <v>medium</v>
+        <v>high</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:13" ht="29">
       <c r="A172" s="4" t="s">
         <v>260</v>
       </c>
@@ -18590,14 +20443,14 @@
       </c>
       <c r="L172" s="4">
         <f t="shared" ca="1" si="29"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M172" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M172" ca="1">_xlfn.IFS(L172&gt;4,"very high",L172&gt;3,"high",L172&gt;2,"medium",TRUE,"low")</f>
-        <v>high</v>
+        <v>very high</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:13" ht="29">
       <c r="A173" s="4" t="s">
         <v>128</v>
       </c>
@@ -18633,14 +20486,14 @@
       </c>
       <c r="L173" s="4">
         <f t="shared" ca="1" si="29"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M173" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M173" ca="1">_xlfn.IFS(L173&gt;4,"very high",L173&gt;3,"high",L173&gt;2,"medium",TRUE,"low")</f>
-        <v>low</v>
+        <v>high</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:13">
       <c r="A174" s="4" t="s">
         <v>262</v>
       </c>
@@ -18676,14 +20529,14 @@
       </c>
       <c r="L174" s="4">
         <f t="shared" ca="1" si="29"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M174" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M174" ca="1">_xlfn.IFS(L174&gt;4,"very high",L174&gt;3,"high",L174&gt;2,"medium",TRUE,"low")</f>
-        <v>low</v>
+        <v>high</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:13">
       <c r="A175" s="4" t="s">
         <v>263</v>
       </c>
@@ -18719,14 +20572,14 @@
       </c>
       <c r="L175" s="4">
         <f t="shared" ca="1" si="29"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M175" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M175" ca="1">_xlfn.IFS(L175&gt;4,"very high",L175&gt;3,"high",L175&gt;2,"medium",TRUE,"low")</f>
-        <v>very high</v>
+        <v>medium</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13" ht="29">
       <c r="A176" s="4" t="s">
         <v>265</v>
       </c>
@@ -18762,14 +20615,14 @@
       </c>
       <c r="L176" s="4">
         <f t="shared" ca="1" si="29"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M176" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M176" ca="1">_xlfn.IFS(L176&gt;4,"very high",L176&gt;3,"high",L176&gt;2,"medium",TRUE,"low")</f>
-        <v>medium</v>
+        <v>high</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:13">
       <c r="A177" s="4" t="s">
         <v>267</v>
       </c>
@@ -18805,14 +20658,14 @@
       </c>
       <c r="L177" s="4">
         <f t="shared" ca="1" si="29"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M177" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M177" ca="1">_xlfn.IFS(L177&gt;4,"very high",L177&gt;3,"high",L177&gt;2,"medium",TRUE,"low")</f>
-        <v>medium</v>
+        <v>low</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13">
       <c r="A178" s="4" t="s">
         <v>268</v>
       </c>
@@ -18855,7 +20708,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13">
       <c r="A179" s="4" t="s">
         <v>269</v>
       </c>
@@ -18891,14 +20744,14 @@
       </c>
       <c r="L179" s="4">
         <f t="shared" ca="1" si="29"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M179" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M179" ca="1">_xlfn.IFS(L179&gt;4,"very high",L179&gt;3,"high",L179&gt;2,"medium",TRUE,"low")</f>
-        <v>low</v>
+        <v>very high</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:13">
       <c r="A180" s="4" t="s">
         <v>270</v>
       </c>
@@ -18934,14 +20787,14 @@
       </c>
       <c r="L180" s="4">
         <f t="shared" ca="1" si="29"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M180" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M180" ca="1">_xlfn.IFS(L180&gt;4,"very high",L180&gt;3,"high",L180&gt;2,"medium",TRUE,"low")</f>
-        <v>high</v>
+        <v>very high</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13">
       <c r="A181" s="4" t="s">
         <v>125</v>
       </c>
@@ -18977,14 +20830,14 @@
       </c>
       <c r="L181" s="4">
         <f t="shared" ca="1" si="29"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M181" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M181" ca="1">_xlfn.IFS(L181&gt;4,"very high",L181&gt;3,"high",L181&gt;2,"medium",TRUE,"low")</f>
         <v>low</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13">
       <c r="A182" s="4" t="s">
         <v>178</v>
       </c>
@@ -19020,14 +20873,14 @@
       </c>
       <c r="L182" s="4">
         <f t="shared" ca="1" si="29"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M182" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M182" ca="1">_xlfn.IFS(L182&gt;4,"very high",L182&gt;3,"high",L182&gt;2,"medium",TRUE,"low")</f>
-        <v>high</v>
+        <v>low</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:13" ht="29" hidden="1">
       <c r="A183" s="4" t="s">
         <v>272</v>
       </c>
@@ -19059,7 +20912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:13">
       <c r="A184" s="4" t="s">
         <v>274</v>
       </c>
@@ -19095,14 +20948,14 @@
       </c>
       <c r="L184" s="4">
         <f t="shared" ref="L184:L185" ca="1" si="30">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M184" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M184" ca="1">_xlfn.IFS(L184&gt;4,"very high",L184&gt;3,"high",L184&gt;2,"medium",TRUE,"low")</f>
-        <v>very high</v>
+        <v>medium</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:13">
       <c r="A185" s="4" t="s">
         <v>276</v>
       </c>
@@ -19138,14 +20991,14 @@
       </c>
       <c r="L185" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M185" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M185" ca="1">_xlfn.IFS(L185&gt;4,"very high",L185&gt;3,"high",L185&gt;2,"medium",TRUE,"low")</f>
-        <v>medium</v>
+        <v>very high</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:13" ht="29" hidden="1">
       <c r="A186" s="4" t="s">
         <v>74</v>
       </c>
@@ -19177,7 +21030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:13">
       <c r="A187" s="4" t="s">
         <v>214</v>
       </c>
@@ -19213,14 +21066,14 @@
       </c>
       <c r="L187" s="4">
         <f t="shared" ref="L187:L194" ca="1" si="31">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M187" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M187" ca="1">_xlfn.IFS(L187&gt;4,"very high",L187&gt;3,"high",L187&gt;2,"medium",TRUE,"low")</f>
-        <v>medium</v>
+        <v>very high</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:13">
       <c r="A188" s="4" t="s">
         <v>278</v>
       </c>
@@ -19263,7 +21116,7 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:13">
       <c r="A189" s="4" t="s">
         <v>280</v>
       </c>
@@ -19299,14 +21152,14 @@
       </c>
       <c r="L189" s="4">
         <f t="shared" ca="1" si="31"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M189" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M189" ca="1">_xlfn.IFS(L189&gt;4,"very high",L189&gt;3,"high",L189&gt;2,"medium",TRUE,"low")</f>
-        <v>high</v>
+        <v>low</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:13" ht="29">
       <c r="A190" s="4" t="s">
         <v>281</v>
       </c>
@@ -19349,7 +21202,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:13" ht="29">
       <c r="A191" s="4" t="s">
         <v>283</v>
       </c>
@@ -19385,14 +21238,14 @@
       </c>
       <c r="L191" s="4">
         <f t="shared" ca="1" si="31"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M191" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M191" ca="1">_xlfn.IFS(L191&gt;4,"very high",L191&gt;3,"high",L191&gt;2,"medium",TRUE,"low")</f>
-        <v>medium</v>
+        <v>low</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:13">
       <c r="A192" s="4" t="s">
         <v>285</v>
       </c>
@@ -19428,14 +21281,14 @@
       </c>
       <c r="L192" s="4">
         <f t="shared" ca="1" si="31"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M192" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M192" ca="1">_xlfn.IFS(L192&gt;4,"very high",L192&gt;3,"high",L192&gt;2,"medium",TRUE,"low")</f>
-        <v>low</v>
+        <v>high</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:13">
       <c r="A193" s="4" t="s">
         <v>287</v>
       </c>
@@ -19478,7 +21331,7 @@
         <v>very high</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:13">
       <c r="A194" s="4" t="s">
         <v>288</v>
       </c>
@@ -19514,14 +21367,14 @@
       </c>
       <c r="L194" s="4">
         <f t="shared" ca="1" si="31"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M194" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M194" ca="1">_xlfn.IFS(L194&gt;4,"very high",L194&gt;3,"high",L194&gt;2,"medium",TRUE,"low")</f>
-        <v>very high</v>
+        <v>high</v>
       </c>
     </row>
-    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:13" hidden="1">
       <c r="A195" s="4" t="s">
         <v>289</v>
       </c>
@@ -19553,7 +21406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:13">
       <c r="A196" s="4" t="s">
         <v>291</v>
       </c>
@@ -19596,7 +21449,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:13">
       <c r="A197" s="4" t="s">
         <v>292</v>
       </c>
@@ -19632,27 +21485,27 @@
       </c>
       <c r="L197" s="4">
         <f t="shared" ca="1" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M197" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M197" ca="1">_xlfn.IFS(L197&gt;4,"very high",L197&gt;3,"high",L197&gt;2,"medium",TRUE,"low")</f>
-        <v>low</v>
+        <v>very high</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="D1:K197" xr:uid="{F48F7783-79A6-4E3D-8F76-12EE78D63A04}">
     <filterColumn colId="0">
-      <colorFilter dxfId="2"/>
+      <colorFilter dxfId="0"/>
     </filterColumn>
     <filterColumn colId="2">
-      <colorFilter dxfId="0"/>
+      <colorFilter dxfId="3"/>
     </filterColumn>
     <filterColumn colId="7">
-      <colorFilter dxfId="1"/>
+      <colorFilter dxfId="2"/>
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="D1:K1048576">
-    <cfRule type="containsBlanks" dxfId="3" priority="1">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(D1))=0</formula>
     </cfRule>
   </conditionalFormatting>
